--- a/DataSheet/Appium.xlsx
+++ b/DataSheet/Appium.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>LeaveType</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>com.truecaller.ui.TruecallerInit</t>
+  </si>
+  <si>
+    <t>com.android.calculator2</t>
+  </si>
+  <si>
+    <t>com.android.calculator2.Calculator</t>
+  </si>
+  <si>
+    <t>com.android.dialer</t>
+  </si>
+  <si>
+    <t>com.android.dialer.DialtactsActivity</t>
   </si>
 </sst>
 </file>
@@ -485,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -495,10 +507,11 @@
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -529,13 +542,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I35" t="s">
         <v>21</v>
       </c>
@@ -545,8 +558,14 @@
       <c r="K35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
         <v>24</v>
       </c>
@@ -556,19 +575,31 @@
       <c r="K36" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>$I$35:$I$38</formula1>
     </dataValidation>
@@ -577,6 +608,12 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>$K$35:$K$36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>$L$35:$L$38</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>$M$35:$M$37</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSheet/Appium.xlsx
+++ b/DataSheet/Appium.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>LeaveType</t>
   </si>
@@ -134,6 +134,30 @@
   </si>
   <si>
     <t>com.android.dialer.DialtactsActivity</t>
+  </si>
+  <si>
+    <t>Android Emulator</t>
+  </si>
+  <si>
+    <t>com.example.android.apis</t>
+  </si>
+  <si>
+    <t>com.example.android.apis.ApiDemos</t>
+  </si>
+  <si>
+    <t>4.4.2</t>
+  </si>
+  <si>
+    <t>com.android.browser</t>
+  </si>
+  <si>
+    <t>com.android.browser.BrowserActivity</t>
+  </si>
+  <si>
+    <t>com.android.vending</t>
+  </si>
+  <si>
+    <t>com.android.vending.AssetBrowserActivity</t>
   </si>
 </sst>
 </file>
@@ -497,21 +521,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -542,10 +567,10 @@
         <v>23</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="9:13" x14ac:dyDescent="0.25">
@@ -586,6 +611,9 @@
       <c r="I37" t="s">
         <v>25</v>
       </c>
+      <c r="K37" t="s">
+        <v>39</v>
+      </c>
       <c r="L37" t="s">
         <v>34</v>
       </c>
@@ -597,23 +625,48 @@
       <c r="I38" t="s">
         <v>26</v>
       </c>
+      <c r="L38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>$I$35:$I$38</formula1>
+      <formula1>$I$35:$I$39</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>$J$35:$J$38</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>$K$35:$K$36</formula1>
+      <formula1>$K$35:$K$39</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>$L$35:$L$38</formula1>
+      <formula1>$L$35:$L$49</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
-      <formula1>$M$35:$M$37</formula1>
+      <formula1>$M$35:$M$48</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSheet/Appium.xlsx
+++ b/DataSheet/Appium.xlsx
@@ -145,9 +145,6 @@
     <t>com.example.android.apis.ApiDemos</t>
   </si>
   <si>
-    <t>4.4.2</t>
-  </si>
-  <si>
     <t>com.android.browser</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>com.android.vending.AssetBrowserActivity</t>
+  </si>
+  <si>
+    <t>8.1.0</t>
   </si>
 </sst>
 </file>
@@ -524,14 +524,14 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
@@ -558,19 +558,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="9:13" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>25</v>
       </c>
       <c r="K37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L37" t="s">
         <v>34</v>
@@ -637,18 +637,18 @@
         <v>36</v>
       </c>
       <c r="L39" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" t="s">
         <v>40</v>
-      </c>
-      <c r="M39" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="40" spans="9:13" x14ac:dyDescent="0.25">
       <c r="L40" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" t="s">
         <v>42</v>
-      </c>
-      <c r="M40" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/Appium.xlsx
+++ b/DataSheet/Appium.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>LeaveType</t>
   </si>
@@ -524,7 +524,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,17 +560,15 @@
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="9:13" x14ac:dyDescent="0.25">

--- a/DataSheet/Appium.xlsx
+++ b/DataSheet/Appium.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>LeaveType</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>8.1.0</t>
+  </si>
+  <si>
+    <t>io.selendroid.testapp.HomeScreenActivity</t>
+  </si>
+  <si>
+    <t>io.selendroid.testapp</t>
   </si>
 </sst>
 </file>
@@ -521,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,10 +571,10 @@
         <v>43</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="9:13" x14ac:dyDescent="0.25">
@@ -647,6 +653,14 @@
       </c>
       <c r="M40" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>45</v>
+      </c>
+      <c r="M41" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/Appium.xlsx
+++ b/DataSheet/Appium.xlsx
@@ -529,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -571,10 +571,10 @@
         <v>43</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="9:13" x14ac:dyDescent="0.25">

--- a/DataSheet/Appium.xlsx
+++ b/DataSheet/Appium.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="4200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="4200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mobile_Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Apply_Leave" sheetId="2" r:id="rId2"/>
+    <sheet name="zomato" sheetId="2" r:id="rId2"/>
     <sheet name="Expenses_Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -26,20 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
-  <si>
-    <t>LeaveType</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>FilePath</t>
   </si>
   <si>
-    <t>FMLA - US</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
     <t>Destination</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>DeviceName</t>
   </si>
   <si>
@@ -164,6 +152,12 @@
   </si>
   <si>
     <t>io.selendroid.testapp</t>
+  </si>
+  <si>
+    <t>in.swiggy.android</t>
+  </si>
+  <si>
+    <t>in.swiggy.android.activities.HomeActivity</t>
   </si>
 </sst>
 </file>
@@ -529,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,120 +541,120 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
+      <c r="C2" s="1">
+        <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I35" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K36" s="5">
         <v>9</v>
       </c>
       <c r="L36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39" t="s">
         <v>36</v>
-      </c>
-      <c r="L39" t="s">
-        <v>39</v>
-      </c>
-      <c r="M39" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="40" spans="9:13" x14ac:dyDescent="0.25">
       <c r="L40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="9:13" x14ac:dyDescent="0.25">
       <c r="L41" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M41" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -688,46 +682,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -750,48 +735,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
